--- a/planning/ECG project.xlsx
+++ b/planning/ECG project.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>ECG #</t>
   </si>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,6 +721,12 @@
       <c r="B21" t="s">
         <v>25</v>
       </c>
+      <c r="C21" s="1">
+        <v>43068</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
